--- a/medicine/Enfance/Les_Pistolets_de_Sans_Atout/Les_Pistolets_de_Sans_Atout.xlsx
+++ b/medicine/Enfance/Les_Pistolets_de_Sans_Atout/Les_Pistolets_de_Sans_Atout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Pistolets de Sans Atout est un roman policier pour la jeunesse de Boileau-Narcejac, paru en 1973. C'est le troisième roman de la série de huit consacrée aux aventures de Sans Atout.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,18 +554,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-François Robion, alias Sans-Atout, a 15 ans, habite en France et est l’ami de Bob. Courageux, intelligent, méticuleux, c'est un optimiste dans la vie.
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>François Robion, alias Sans-Atout, a 15 ans, habite en France et est l’ami de Bob. Courageux, intelligent, méticuleux, c'est un optimiste dans la vie.
 Bob Skinner a 15 ans, comme François mais habite en Angleterre. Il est le fils de Mr. Skinner, celui qui a inventé l’automate. Il vit dans une famille riche. Gourmand et gros, il tente de garder ses émotions pour lui.
-Jonathan Skinner a une trentaine d’années. Père de Bob, il est comme François optimiste. Il est malin, car pour l’automate, il vole lui-même ses papiers, pour que les autres n'en vendent pas sur le marché, car la police penserait que c’est lui qui a volé sa propre invention.
-Personnages secondaires
-Morrisson, inspecteur chargé de l’enquête. Il est judicieux dans ses observations.
-Miss Mary, future épouse du père de Bob, Mr. Skinner. De haute taille, elle a de longs cheveux blonds. Elle a environ le même âge que Mr. Skinner.
-L’homme roux : mystérieux et inoffensif, on n’en sait pas plus sur son compte.
-Personnages figurants
-Mrs. Humphrey, domestique de la maison.
-Le narrateur n’est pas un personnage de l’histoire.
-Laslo Carolyi.</t>
+Jonathan Skinner a une trentaine d’années. Père de Bob, il est comme François optimiste. Il est malin, car pour l’automate, il vole lui-même ses papiers, pour que les autres n'en vendent pas sur le marché, car la police penserait que c’est lui qui a volé sa propre invention.</t>
         </is>
       </c>
     </row>
@@ -576,10 +587,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Morrisson, inspecteur chargé de l’enquête. Il est judicieux dans ses observations.
+Miss Mary, future épouse du père de Bob, Mr. Skinner. De haute taille, elle a de longs cheveux blonds. Elle a environ le même âge que Mr. Skinner.
+L’homme roux : mystérieux et inoffensif, on n’en sait pas plus sur son compte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Pistolets_de_Sans_Atout</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Pistolets_de_Sans_Atout</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages figurants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mrs. Humphrey, domestique de la maison.
+Le narrateur n’est pas un personnage de l’histoire.
+Laslo Carolyi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Pistolets_de_Sans_Atout</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Pistolets_de_Sans_Atout</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« Les Pistolets De Sans-Atout », Gallimard, coll. Folio junior énigmes, 1980.</t>
         </is>
